--- a/pandas/data/animales.xlsx
+++ b/pandas/data/animales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,119 +436,93 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>longitud</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ancho</t>
+          <t>talla</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>masa</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>nombre_comun</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>observaciones</t>
+          <t>generl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>caballo</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Henrry</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>gato</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>perro</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eli</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>tortuga</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lidia</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>conejo</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
   </sheetData>
